--- a/data/trans_orig/P2A_psíq_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC5BC54-B3DE-40E6-9790-5744C283036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{351C6E05-78CA-47E7-BFCF-28E3761F2BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28DF95BA-751D-4C20-9116-F504F16006B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9D7185A-7AC6-4672-BB25-A22614B958B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="397">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="379">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -86,7 +86,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -110,7 +110,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -128,25 +128,28 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,87%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -155,10 +158,13 @@
     <t>99,67%</t>
   </si>
   <si>
+    <t>99,01%</t>
+  </si>
+  <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,17%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -173,979 +179,931 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>95,72%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
     <t>2,67%</t>
   </si>
   <si>
+    <t>4,27%</t>
+  </si>
+  <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
+    <t>95,73%</t>
+  </si>
+  <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>14,2%</t>
@@ -1154,28 +1112,28 @@
     <t>3,47%</t>
   </si>
   <si>
-    <t>40,52%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>59,48%</t>
+    <t>64,15%</t>
   </si>
   <si>
     <t>96,53%</t>
@@ -1184,52 +1142,40 @@
     <t>90,37%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>90,25%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F0163-23F4-4CE3-93DC-C6E0FC08D735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D69067-CD82-43A6-B34E-3889BB888DA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1941,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1950,13 +1896,13 @@
         <v>5017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1917,13 @@
         <v>732507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>589</v>
@@ -1986,10 +1932,10 @@
         <v>623459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2001,13 +1947,13 @@
         <v>1355965</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2009,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2075,13 +2021,13 @@
         <v>5381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2090,13 +2036,13 @@
         <v>7289</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2105,13 +2051,13 @@
         <v>12670</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2072,13 @@
         <v>633287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -2141,13 +2087,13 @@
         <v>682455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
@@ -2156,13 +2102,13 @@
         <v>1315742</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2164,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2230,13 +2176,13 @@
         <v>8818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2245,13 +2191,13 @@
         <v>8866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2260,13 +2206,13 @@
         <v>17684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2227,13 @@
         <v>510329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>493</v>
@@ -2296,13 +2242,13 @@
         <v>506776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -2311,13 +2257,13 @@
         <v>1017105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2367,7 @@
         <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2385,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2451,13 +2397,13 @@
         <v>397545</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>780</v>
@@ -2466,13 +2412,13 @@
         <v>782272</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,7 +2474,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2540,13 +2486,13 @@
         <v>10576</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2555,13 +2501,13 @@
         <v>11842</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2570,13 +2516,13 @@
         <v>22419</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2537,13 @@
         <v>491890</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>649</v>
@@ -2606,13 +2552,13 @@
         <v>665000</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -2621,13 +2567,13 @@
         <v>1156889</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2641,13 @@
         <v>29741</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -2710,13 +2656,13 @@
         <v>37457</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -2725,13 +2671,13 @@
         <v>67198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,16 +2689,16 @@
         <v>3186</v>
       </c>
       <c r="D23" s="7">
-        <v>3246802</v>
+        <v>3246803</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>3260</v>
@@ -2761,28 +2707,28 @@
         <v>3341741</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>6446</v>
       </c>
       <c r="N23" s="7">
-        <v>6588543</v>
+        <v>6588542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2740,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -2824,7 +2770,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2838,7 +2784,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05526FC2-953F-44A0-B32D-198F8E6CE0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A9D6E-A2D8-420B-BB4C-D75AD23E3F84}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2877,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2984,13 +2930,13 @@
         <v>2881</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2999,13 +2945,13 @@
         <v>7715</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3014,13 +2960,13 @@
         <v>10596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,10 +2981,10 @@
         <v>451265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3050,13 +2996,13 @@
         <v>422515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>856</v>
@@ -3065,13 +3011,13 @@
         <v>873780</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3085,13 @@
         <v>10413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3154,13 +3100,13 @@
         <v>5682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3169,13 +3115,13 @@
         <v>16095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3136,13 @@
         <v>676674</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -3205,13 +3151,13 @@
         <v>604573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>1224</v>
@@ -3220,13 +3166,13 @@
         <v>1281247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3228,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3294,13 +3240,13 @@
         <v>8597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3309,13 +3255,13 @@
         <v>21561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3324,13 +3270,13 @@
         <v>30158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3291,13 @@
         <v>673266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -3360,13 +3306,13 @@
         <v>689289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1291</v>
@@ -3375,13 +3321,13 @@
         <v>1362554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3449,13 +3395,13 @@
         <v>12634</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3464,13 +3410,13 @@
         <v>15886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3479,13 +3425,13 @@
         <v>28519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3446,13 @@
         <v>601983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3515,13 +3461,13 @@
         <v>600313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1062</v>
@@ -3530,13 +3476,13 @@
         <v>1202297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3550,13 @@
         <v>10756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3619,13 +3565,13 @@
         <v>9866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3634,13 +3580,13 @@
         <v>20622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3601,13 @@
         <v>418673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -3670,13 +3616,13 @@
         <v>437934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>780</v>
@@ -3685,13 +3631,13 @@
         <v>856607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3693,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3759,13 +3705,13 @@
         <v>18230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3774,13 +3720,13 @@
         <v>13505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3789,13 +3735,13 @@
         <v>31735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3756,13 @@
         <v>541407</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>682</v>
@@ -3825,13 +3771,13 @@
         <v>729470</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>1170</v>
@@ -3840,13 +3786,13 @@
         <v>1270877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3860,13 @@
         <v>63511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -3929,13 +3875,13 @@
         <v>74215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -3944,13 +3890,13 @@
         <v>137726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3911,13 @@
         <v>3363268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>3229</v>
@@ -3980,13 +3926,13 @@
         <v>3484094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>6383</v>
@@ -3995,13 +3941,13 @@
         <v>6847362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4003,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9926B5-E0E8-4E18-AF17-17A4B209B047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07ADCC5-7D2B-4DCD-A8F3-CDCDCB22D8A5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4096,7 +4042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4203,13 +4149,13 @@
         <v>2491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4218,13 +4164,13 @@
         <v>1903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4233,13 +4179,13 @@
         <v>4393</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,10 +4200,10 @@
         <v>416972</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4269,10 +4215,10 @@
         <v>393852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4284,13 +4230,13 @@
         <v>810825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4304,13 @@
         <v>4761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4373,13 +4319,13 @@
         <v>5706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4388,13 +4334,13 @@
         <v>10467</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4355,13 @@
         <v>585735</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>573</v>
@@ -4424,13 +4370,13 @@
         <v>557838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>1135</v>
@@ -4439,13 +4385,13 @@
         <v>1143573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,7 +4447,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4513,13 +4459,13 @@
         <v>2812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4528,13 +4474,13 @@
         <v>7618</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4543,13 +4489,13 @@
         <v>10430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4510,13 @@
         <v>666285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -4579,13 +4525,13 @@
         <v>653768</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>1292</v>
@@ -4594,13 +4540,13 @@
         <v>1320053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,7 +4602,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4668,13 +4614,13 @@
         <v>7132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4683,13 +4629,13 @@
         <v>9226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4698,13 +4644,13 @@
         <v>16358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4665,13 @@
         <v>638916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -4734,13 +4680,13 @@
         <v>639851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4749,13 +4695,13 @@
         <v>1278767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4769,13 @@
         <v>7226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4838,13 +4784,13 @@
         <v>11962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4853,13 +4799,13 @@
         <v>19188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4820,13 @@
         <v>470692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>424</v>
@@ -4889,13 +4835,13 @@
         <v>484887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>842</v>
@@ -4904,13 +4850,13 @@
         <v>955579</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,7 +4912,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4978,13 +4924,13 @@
         <v>7480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4993,13 +4939,13 @@
         <v>19972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -5008,13 +4954,13 @@
         <v>27452</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +4975,13 @@
         <v>583848</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -5044,13 +4990,13 @@
         <v>757959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1257</v>
@@ -5059,13 +5005,13 @@
         <v>1341807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5079,13 @@
         <v>31901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5151,10 +5097,10 @@
         <v>81</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -5163,13 +5109,13 @@
         <v>88288</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5130,13 @@
         <v>3362449</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>3287</v>
@@ -5199,13 +5145,13 @@
         <v>3488155</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>6488</v>
@@ -5214,13 +5160,13 @@
         <v>6850604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,7 +5222,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5298,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBA6021-DCA8-4271-AB3C-269D34F6A7FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695938A-3CCF-4E54-9622-7974B2C260A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5315,7 +5261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5422,13 +5368,13 @@
         <v>7794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5437,13 +5383,13 @@
         <v>7294</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5452,13 +5398,13 @@
         <v>15089</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5419,13 @@
         <v>369885</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -5488,13 +5434,13 @@
         <v>347663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -5503,13 +5449,13 @@
         <v>717547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5523,13 @@
         <v>4494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5592,13 +5538,13 @@
         <v>13627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5607,13 +5553,13 @@
         <v>18121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5574,13 @@
         <v>423902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5643,13 +5589,13 @@
         <v>485588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -5658,13 +5604,13 @@
         <v>909490</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,7 +5666,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5732,13 +5678,13 @@
         <v>6552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5747,13 +5693,13 @@
         <v>16540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -5762,13 +5708,13 @@
         <v>23092</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5729,13 @@
         <v>550700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>822</v>
@@ -5798,13 +5744,13 @@
         <v>593907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>1360</v>
@@ -5813,13 +5759,13 @@
         <v>1144607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5821,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5887,13 +5833,13 @@
         <v>22563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5902,13 +5848,13 @@
         <v>23152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -5917,13 +5863,13 @@
         <v>45715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5884,13 @@
         <v>701427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>1107</v>
@@ -5953,28 +5899,28 @@
         <v>724109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>1751</v>
       </c>
       <c r="N14" s="7">
-        <v>1425536</v>
+        <v>1425537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +5962,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -6042,13 +5988,13 @@
         <v>16026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -6057,13 +6003,13 @@
         <v>13559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -6072,13 +6018,13 @@
         <v>29584</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6039,13 @@
         <v>584131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>981</v>
@@ -6108,13 +6054,13 @@
         <v>583504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>1627</v>
@@ -6123,13 +6069,13 @@
         <v>1167636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6131,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6197,13 +6143,13 @@
         <v>20250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -6212,13 +6158,13 @@
         <v>145768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -6227,13 +6173,13 @@
         <v>166017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,16 +6191,16 @@
         <v>999</v>
       </c>
       <c r="D20" s="7">
-        <v>677505</v>
+        <v>677504</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>1642</v>
@@ -6263,13 +6209,13 @@
         <v>880869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>2641</v>
@@ -6278,13 +6224,13 @@
         <v>1558375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,7 +6242,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -6352,13 +6298,13 @@
         <v>77678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -6367,13 +6313,13 @@
         <v>219940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>245</v>
@@ -6382,13 +6328,13 @@
         <v>297618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6349,13 @@
         <v>3307550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>5205</v>
@@ -6418,28 +6364,28 @@
         <v>3615641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>8498</v>
       </c>
       <c r="N23" s="7">
-        <v>6923190</v>
+        <v>6923191</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,7 +6427,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -6495,7 +6441,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_psíq_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351C6E05-78CA-47E7-BFCF-28E3761F2BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09261235-2570-4B1C-A44E-5B72E4976A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9D7185A-7AC6-4672-BB25-A22614B958B9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{69339016-B5B3-4518-BBC7-0157D535C30F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="432">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -131,1051 +131,1210 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1746,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D69067-CD82-43A6-B34E-3889BB888DA9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A36ABA-1F3D-4040-A57F-01044793DBDB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1875,10 +2034,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2035</v>
+        <v>2989</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1890,10 +2049,10 @@
         <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>5017</v>
+        <v>5971</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -1926,10 +2085,10 @@
         <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>623459</v>
+        <v>622505</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>38</v>
@@ -1941,10 +2100,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="N8" s="7">
-        <v>1355965</v>
+        <v>1355011</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -2039,10 +2198,10 @@
         <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2051,13 +2210,13 @@
         <v>12670</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2231,13 @@
         <v>633287</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -2087,13 +2246,13 @@
         <v>682455</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
@@ -2102,13 +2261,13 @@
         <v>1315742</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,7 +2323,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2176,43 +2335,43 @@
         <v>8818</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9932</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="7">
+        <v>18</v>
+      </c>
+      <c r="N13" s="7">
+        <v>18750</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8866</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>17684</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,43 +2386,43 @@
         <v>510329</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="7">
+        <v>492</v>
+      </c>
+      <c r="I14" s="7">
+        <v>505710</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="7">
+        <v>968</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1016039</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7">
-        <v>493</v>
-      </c>
-      <c r="I14" s="7">
-        <v>506776</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="7">
-        <v>969</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1017105</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2337,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2346,13 +2505,13 @@
         <v>6441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2361,10 +2520,10 @@
         <v>8424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>46</v>
@@ -2385,7 +2544,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2397,13 +2556,13 @@
         <v>397545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>780</v>
@@ -2412,13 +2571,13 @@
         <v>782272</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,55 +2633,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>10576</v>
+        <v>3654</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4564</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="7">
+        <v>9</v>
+      </c>
+      <c r="N19" s="7">
+        <v>8218</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11842</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="7">
-        <v>23</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22419</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,49 +2690,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>512</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>491890</v>
+        <v>288929</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>366</v>
+      </c>
+      <c r="I20" s="7">
+        <v>338370</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>665</v>
+      </c>
+      <c r="N20" s="7">
+        <v>627299</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H20" s="7">
-        <v>649</v>
-      </c>
-      <c r="I20" s="7">
-        <v>665000</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1161</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1156889</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2597,10 +2756,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -2612,10 +2771,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2629,55 +2788,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>29741</v>
+        <v>6922</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7278</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="7">
+        <v>14</v>
+      </c>
+      <c r="N22" s="7">
+        <v>14200</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="7">
-        <v>37</v>
-      </c>
-      <c r="I22" s="7">
-        <v>37457</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="7">
-        <v>65</v>
-      </c>
-      <c r="N22" s="7">
-        <v>67198</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,49 +2845,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3186</v>
+        <v>213</v>
       </c>
       <c r="D23" s="7">
-        <v>3246803</v>
+        <v>202961</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="7">
+        <v>283</v>
+      </c>
+      <c r="I23" s="7">
+        <v>326630</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="7">
+        <v>496</v>
+      </c>
+      <c r="N23" s="7">
+        <v>529591</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3260</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3341741</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6446</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6588542</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,63 +2896,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29741</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="7">
+        <v>39</v>
+      </c>
+      <c r="I25" s="7">
+        <v>39476</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="7">
+        <v>67</v>
+      </c>
+      <c r="N25" s="7">
+        <v>69216</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3186</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3246802</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3258</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3339721</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6444</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6586525</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +3121,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A9D6E-A2D8-420B-BB4C-D75AD23E3F84}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4988E0-F379-4E74-8854-8FA95610E417}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +3138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +3245,13 @@
         <v>2881</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2945,13 +3260,13 @@
         <v>7715</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2960,13 +3275,13 @@
         <v>10596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,10 +3296,10 @@
         <v>451265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2996,13 +3311,13 @@
         <v>422515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>856</v>
@@ -3011,13 +3326,13 @@
         <v>873780</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3400,13 @@
         <v>10413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3100,13 +3415,13 @@
         <v>5682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3115,10 +3430,10 @@
         <v>16095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>46</v>
@@ -3136,13 +3451,13 @@
         <v>676674</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -3151,13 +3466,13 @@
         <v>604573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>1224</v>
@@ -3166,13 +3481,13 @@
         <v>1281247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3555,13 @@
         <v>8597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3255,13 +3570,13 @@
         <v>21561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3270,13 +3585,13 @@
         <v>30158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3606,13 @@
         <v>673266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -3306,13 +3621,13 @@
         <v>689289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>1291</v>
@@ -3321,13 +3636,13 @@
         <v>1362554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,7 +3698,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3398,10 +3713,10 @@
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3410,13 +3725,13 @@
         <v>15886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3425,13 +3740,13 @@
         <v>28519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3761,13 @@
         <v>601983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3461,13 +3776,13 @@
         <v>600313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1062</v>
@@ -3476,13 +3791,13 @@
         <v>1202297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3853,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3865,13 @@
         <v>10756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3565,13 +3880,13 @@
         <v>9866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3580,13 +3895,13 @@
         <v>20622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3916,13 @@
         <v>418673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -3616,13 +3931,13 @@
         <v>437934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>780</v>
@@ -3631,13 +3946,13 @@
         <v>856607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,55 +4008,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>18230</v>
+        <v>9696</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3785</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M19" s="7">
         <v>12</v>
       </c>
-      <c r="I19" s="7">
-        <v>13505</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" s="7">
-        <v>28</v>
-      </c>
       <c r="N19" s="7">
-        <v>31735</v>
+        <v>13481</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,49 +4065,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>541407</v>
+        <v>300090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
-        <v>682</v>
+        <v>341</v>
       </c>
       <c r="I20" s="7">
-        <v>729470</v>
+        <v>350211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
-        <v>1170</v>
+        <v>614</v>
       </c>
       <c r="N20" s="7">
-        <v>1270877</v>
+        <v>650301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,10 +4116,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3816,10 +4131,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -3831,10 +4146,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3848,55 +4163,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>63511</v>
+        <v>8534</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>74215</v>
+        <v>9720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>137726</v>
+        <v>18254</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,49 +4220,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3154</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3363268</v>
+        <v>241317</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
-        <v>3229</v>
+        <v>341</v>
       </c>
       <c r="I23" s="7">
-        <v>3484094</v>
+        <v>379259</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" s="7">
-        <v>6383</v>
+        <v>556</v>
       </c>
       <c r="N23" s="7">
-        <v>6847362</v>
+        <v>620576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,63 +4271,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>55</v>
+      </c>
+      <c r="D25" s="7">
+        <v>63511</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="7">
+        <v>69</v>
+      </c>
+      <c r="I25" s="7">
+        <v>74215</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" s="7">
+        <v>124</v>
+      </c>
+      <c r="N25" s="7">
+        <v>137726</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3154</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3363268</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3229</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3484094</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6383</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6847362</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4025,8 +4496,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07ADCC5-7D2B-4DCD-A8F3-CDCDCB22D8A5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11963AC-7CCF-4F55-B6BF-A10F4AA5E6C1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4042,7 +4513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4149,13 +4620,13 @@
         <v>2491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4164,13 +4635,13 @@
         <v>1903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4179,13 +4650,13 @@
         <v>4393</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4671,10 @@
         <v>416972</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4215,10 +4686,10 @@
         <v>393852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4230,13 +4701,13 @@
         <v>810825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4775,13 @@
         <v>4761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4319,13 +4790,13 @@
         <v>5706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4334,13 +4805,13 @@
         <v>10467</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4826,13 @@
         <v>585735</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>573</v>
@@ -4370,13 +4841,13 @@
         <v>557838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>1135</v>
@@ -4385,13 +4856,13 @@
         <v>1143573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,43 +4930,43 @@
         <v>2812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>7618</v>
+        <v>8520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>10430</v>
+        <v>11332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,43 +4981,43 @@
         <v>666285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>653768</v>
+        <v>652866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N11" s="7">
-        <v>1320053</v>
+        <v>1319151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +5073,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4614,13 +5085,13 @@
         <v>7132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4629,13 +5100,13 @@
         <v>9226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4644,13 +5115,13 @@
         <v>16358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +5136,13 @@
         <v>638916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -4680,13 +5151,13 @@
         <v>639851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4695,13 +5166,13 @@
         <v>1278767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,7 +5228,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4769,13 +5240,13 @@
         <v>7226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4784,13 +5255,13 @@
         <v>11962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4799,13 +5270,13 @@
         <v>19188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +5291,13 @@
         <v>470692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>424</v>
@@ -4835,13 +5306,13 @@
         <v>484887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>842</v>
@@ -4850,13 +5321,13 @@
         <v>955579</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,55 +5383,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>7480</v>
+        <v>5840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>19972</v>
+        <v>9929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>27452</v>
+        <v>15769</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,49 +5440,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>619</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>583848</v>
+        <v>328490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>638</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>757959</v>
+        <v>367833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
-        <v>1257</v>
+        <v>664</v>
       </c>
       <c r="N20" s="7">
-        <v>1341807</v>
+        <v>696323</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,10 +5491,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -5035,10 +5506,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -5050,10 +5521,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -5067,55 +5538,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>31901</v>
+        <v>1640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>56387</v>
+        <v>10043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>88288</v>
+        <v>11684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,49 +5595,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3201</v>
+        <v>300</v>
       </c>
       <c r="D23" s="7">
-        <v>3362449</v>
+        <v>255358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3287</v>
+        <v>293</v>
       </c>
       <c r="I23" s="7">
-        <v>3488155</v>
+        <v>390126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
-        <v>6488</v>
+        <v>593</v>
       </c>
       <c r="N23" s="7">
-        <v>6850604</v>
+        <v>645483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,63 +5646,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>31901</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="7">
+        <v>52</v>
+      </c>
+      <c r="I25" s="7">
+        <v>57288</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="7">
+        <v>82</v>
+      </c>
+      <c r="N25" s="7">
+        <v>89190</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3201</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3362449</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3286</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3487254</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6487</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6849702</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5244,8 +5871,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695938A-3CCF-4E54-9622-7974B2C260A3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518CE7F7-48B6-4372-8391-F529FC92B984}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5261,7 +5888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5365,46 +5992,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>7794</v>
+        <v>8349</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>7294</v>
+        <v>6092</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>15089</v>
+        <v>14440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,46 +6043,46 @@
         <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>369885</v>
+        <v>391638</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>347663</v>
+        <v>307108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
       </c>
       <c r="N5" s="7">
-        <v>717547</v>
+        <v>698747</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>54</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>73</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +6094,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -5482,7 +6109,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -5497,7 +6124,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -5520,46 +6147,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4494</v>
+        <v>4148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>13627</v>
+        <v>13657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>18121</v>
+        <v>17805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,46 +6198,46 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>423902</v>
+        <v>419399</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>54</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
       </c>
       <c r="I8" s="7">
-        <v>485588</v>
+        <v>498436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
       </c>
       <c r="N8" s="7">
-        <v>909490</v>
+        <v>917835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +6249,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -5637,7 +6264,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -5652,7 +6279,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -5675,46 +6302,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>6552</v>
+        <v>6344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>16540</v>
+        <v>15399</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>23092</v>
+        <v>21744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,46 +6353,46 @@
         <v>538</v>
       </c>
       <c r="D11" s="7">
-        <v>550700</v>
+        <v>529994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>822</v>
       </c>
       <c r="I11" s="7">
-        <v>593907</v>
+        <v>576603</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>1360</v>
       </c>
       <c r="N11" s="7">
-        <v>1144607</v>
+        <v>1106596</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,7 +6404,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -5792,7 +6419,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -5807,7 +6434,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -5821,55 +6448,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>22563</v>
+        <v>20353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>23152</v>
+        <v>20744</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>45715</v>
+        <v>41097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,49 +6505,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D14" s="7">
-        <v>701427</v>
+        <v>867433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I14" s="7">
-        <v>724109</v>
+        <v>692137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="N14" s="7">
-        <v>1425537</v>
+        <v>1559570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,7 +6559,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -5947,7 +6574,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -5962,7 +6589,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -5976,7 +6603,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5985,46 +6612,46 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>16026</v>
+        <v>14961</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>13559</v>
+        <v>11602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>29584</v>
+        <v>26563</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,46 +6663,46 @@
         <v>646</v>
       </c>
       <c r="D17" s="7">
-        <v>584131</v>
+        <v>546273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I17" s="7">
-        <v>583504</v>
+        <v>536303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="M17" s="7">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="N17" s="7">
-        <v>1167636</v>
+        <v>1082576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,7 +6714,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -6102,7 +6729,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -6117,7 +6744,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -6131,55 +6758,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>20250</v>
+        <v>9774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>145768</v>
+        <v>216866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>166017</v>
+        <v>226640</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,49 +6815,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>999</v>
+        <v>555</v>
       </c>
       <c r="D20" s="7">
-        <v>677504</v>
+        <v>358391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
-        <v>1642</v>
+        <v>803</v>
       </c>
       <c r="I20" s="7">
-        <v>880869</v>
+        <v>391502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
-        <v>2641</v>
+        <v>1358</v>
       </c>
       <c r="N20" s="7">
-        <v>1558375</v>
+        <v>749893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,10 +6866,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -6254,10 +6881,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -6269,10 +6896,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -6286,55 +6913,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>77678</v>
+        <v>9055</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="I22" s="7">
-        <v>219940</v>
+        <v>19869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="N22" s="7">
-        <v>297618</v>
+        <v>28924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,49 +6970,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3293</v>
+        <v>444</v>
       </c>
       <c r="D23" s="7">
-        <v>3307550</v>
+        <v>273704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>137</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
-        <v>5205</v>
+        <v>839</v>
       </c>
       <c r="I23" s="7">
-        <v>3615641</v>
+        <v>405962</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
-        <v>8498</v>
+        <v>1283</v>
       </c>
       <c r="N23" s="7">
-        <v>6923191</v>
+        <v>679666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,63 +7021,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7">
+        <v>72985</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H25" s="7">
+        <v>160</v>
+      </c>
+      <c r="I25" s="7">
+        <v>304229</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M25" s="7">
+        <v>242</v>
+      </c>
+      <c r="N25" s="7">
+        <v>377213</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3294</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3386832</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5207</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3408051</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8501</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6794884</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
